--- a/3_Desafio_Integrales/Ejercicio.xlsx
+++ b/3_Desafio_Integrales/Ejercicio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SIS254 - Metodos Numericos I\SIS254-MetodosNumericos\3_Desafio_Integrales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF0EBF5-FE05-4959-8CCC-8B988740F731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94934C-A6DD-4740-B370-148E30819F3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1688F3C3-F81B-4DD2-8335-956B1411BF49}"/>
   </bookViews>
@@ -191,6 +191,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532190</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Imagen de salida">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D9B55F-5D53-4496-80A7-EB22674EE71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="7307"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8280400" y="1405467"/>
+          <a:ext cx="6695923" cy="3544147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -241,6 +300,65 @@
             <a:srgbClr val="92D050"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>193887</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Imagen de salida">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA29441F-A6B1-41B4-A67A-55945924B882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="7466"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8356600" y="1778000"/>
+          <a:ext cx="6306820" cy="3332478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -548,7 +666,7 @@
   <dimension ref="B17:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +835,7 @@
   <dimension ref="B17:E29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
